--- a/processed-data/Table_4_yearly_pop_counts.xlsx
+++ b/processed-data/Table_4_yearly_pop_counts.xlsx
@@ -1,21 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimco\Documents\MEGA\MEGAsync\Data_Scientist\Public-Sector\Vaccinations\Vax-Ireland\processed-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF9C32-7EF5-463F-B088-B11549C7BE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="852" yWindow="672" windowWidth="22188" windowHeight="12288" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pop by Year, Age" sheetId="1" r:id="rId1"/>
+    <sheet name="Mort by Year, Age" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>15-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75+</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,71 +408,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>0-4</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>5-14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>65-74</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>75+</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -449,7 +485,7 @@
         <v>4554800</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -484,7 +520,7 @@
         <v>4588252</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -519,7 +555,7 @@
         <v>4593700</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -554,7 +590,7 @@
         <v>4614700</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -589,7 +625,7 @@
         <v>4645400</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -624,7 +660,7 @@
         <v>4687800</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -659,7 +695,7 @@
         <v>4761865</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -694,7 +730,7 @@
         <v>4792500</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -729,7 +765,7 @@
         <v>4857000</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -764,7 +800,7 @@
         <v>4921500</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -799,7 +835,7 @@
         <v>4977400</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -834,7 +870,7 @@
         <v>5011500</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -869,7 +905,7 @@
         <v>5149139</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -902,6 +938,546 @@
       </c>
       <c r="K15">
         <v>5281600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF18619-B87C-406D-BAC9-AA8B27A0ACE6}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>327</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>261</v>
+      </c>
+      <c r="E2">
+        <v>449</v>
+      </c>
+      <c r="F2">
+        <v>703</v>
+      </c>
+      <c r="G2">
+        <v>1425</v>
+      </c>
+      <c r="H2">
+        <v>2809</v>
+      </c>
+      <c r="I2">
+        <v>4803</v>
+      </c>
+      <c r="J2">
+        <v>16733</v>
+      </c>
+      <c r="K2">
+        <v>27565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>292</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>296</v>
+      </c>
+      <c r="E3">
+        <v>447</v>
+      </c>
+      <c r="F3">
+        <v>790</v>
+      </c>
+      <c r="G3">
+        <v>1465</v>
+      </c>
+      <c r="H3">
+        <v>3026</v>
+      </c>
+      <c r="I3">
+        <v>5038</v>
+      </c>
+      <c r="J3">
+        <v>17593</v>
+      </c>
+      <c r="K3">
+        <v>28995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>295</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>251</v>
+      </c>
+      <c r="E4">
+        <v>449</v>
+      </c>
+      <c r="F4">
+        <v>764</v>
+      </c>
+      <c r="G4">
+        <v>1434</v>
+      </c>
+      <c r="H4">
+        <v>2827</v>
+      </c>
+      <c r="I4">
+        <v>4871</v>
+      </c>
+      <c r="J4">
+        <v>17897</v>
+      </c>
+      <c r="K4">
+        <v>28848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>275</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>215</v>
+      </c>
+      <c r="E5">
+        <v>411</v>
+      </c>
+      <c r="F5">
+        <v>634</v>
+      </c>
+      <c r="G5">
+        <v>1498</v>
+      </c>
+      <c r="H5">
+        <v>2947</v>
+      </c>
+      <c r="I5">
+        <v>5186</v>
+      </c>
+      <c r="J5">
+        <v>18794</v>
+      </c>
+      <c r="K5">
+        <v>30018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>287</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>202</v>
+      </c>
+      <c r="E6">
+        <v>419</v>
+      </c>
+      <c r="F6">
+        <v>663</v>
+      </c>
+      <c r="G6">
+        <v>1383</v>
+      </c>
+      <c r="H6">
+        <v>2816</v>
+      </c>
+      <c r="I6">
+        <v>5217</v>
+      </c>
+      <c r="J6">
+        <v>18052</v>
+      </c>
+      <c r="K6">
+        <v>29095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>243</v>
+      </c>
+      <c r="C7">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>198</v>
+      </c>
+      <c r="E7">
+        <v>387</v>
+      </c>
+      <c r="F7">
+        <v>637</v>
+      </c>
+      <c r="G7">
+        <v>1341</v>
+      </c>
+      <c r="H7">
+        <v>2764</v>
+      </c>
+      <c r="I7">
+        <v>5195</v>
+      </c>
+      <c r="J7">
+        <v>19135</v>
+      </c>
+      <c r="K7">
+        <v>29952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>189</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>167</v>
+      </c>
+      <c r="E8">
+        <v>336</v>
+      </c>
+      <c r="F8">
+        <v>616</v>
+      </c>
+      <c r="G8">
+        <v>1365</v>
+      </c>
+      <c r="H8">
+        <v>2839</v>
+      </c>
+      <c r="I8">
+        <v>5506</v>
+      </c>
+      <c r="J8">
+        <v>19137</v>
+      </c>
+      <c r="K8">
+        <v>30189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>202</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>175</v>
+      </c>
+      <c r="E9">
+        <v>306</v>
+      </c>
+      <c r="F9">
+        <v>679</v>
+      </c>
+      <c r="G9">
+        <v>1312</v>
+      </c>
+      <c r="H9">
+        <v>2739</v>
+      </c>
+      <c r="I9">
+        <v>5364</v>
+      </c>
+      <c r="J9">
+        <v>19662</v>
+      </c>
+      <c r="K9">
+        <v>30484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>214</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>157</v>
+      </c>
+      <c r="E10">
+        <v>331</v>
+      </c>
+      <c r="F10">
+        <v>619</v>
+      </c>
+      <c r="G10">
+        <v>1346</v>
+      </c>
+      <c r="H10">
+        <v>2762</v>
+      </c>
+      <c r="I10">
+        <v>5589</v>
+      </c>
+      <c r="J10">
+        <v>20044</v>
+      </c>
+      <c r="K10">
+        <v>31116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>219</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>305</v>
+      </c>
+      <c r="F11">
+        <v>673</v>
+      </c>
+      <c r="G11">
+        <v>1374</v>
+      </c>
+      <c r="H11">
+        <v>2927</v>
+      </c>
+      <c r="I11">
+        <v>5615</v>
+      </c>
+      <c r="J11">
+        <v>19823</v>
+      </c>
+      <c r="K11">
+        <v>31134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+      <c r="C12">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>136</v>
+      </c>
+      <c r="E12">
+        <v>256</v>
+      </c>
+      <c r="F12">
+        <v>642</v>
+      </c>
+      <c r="G12">
+        <v>1299</v>
+      </c>
+      <c r="H12">
+        <v>2765</v>
+      </c>
+      <c r="I12">
+        <v>5822</v>
+      </c>
+      <c r="J12">
+        <v>20618</v>
+      </c>
+      <c r="K12">
+        <v>31765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>194</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>146</v>
+      </c>
+      <c r="E13">
+        <v>262</v>
+      </c>
+      <c r="F13">
+        <v>674</v>
+      </c>
+      <c r="G13">
+        <v>1447</v>
+      </c>
+      <c r="H13">
+        <v>2975</v>
+      </c>
+      <c r="I13">
+        <v>5847</v>
+      </c>
+      <c r="J13">
+        <v>21475</v>
+      </c>
+      <c r="K13">
+        <v>33055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>175</v>
+      </c>
+      <c r="E14">
+        <v>340</v>
+      </c>
+      <c r="F14">
+        <v>659</v>
+      </c>
+      <c r="G14">
+        <v>1490</v>
+      </c>
+      <c r="H14">
+        <v>3122</v>
+      </c>
+      <c r="I14">
+        <v>6117</v>
+      </c>
+      <c r="J14">
+        <v>23322</v>
+      </c>
+      <c r="K14">
+        <v>35477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>97</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <v>123</v>
+      </c>
+      <c r="F15">
+        <v>299</v>
+      </c>
+      <c r="G15">
+        <v>742</v>
+      </c>
+      <c r="H15">
+        <v>1532</v>
+      </c>
+      <c r="I15">
+        <v>3151</v>
+      </c>
+      <c r="J15">
+        <v>12903</v>
+      </c>
+      <c r="K15">
+        <v>18954</v>
       </c>
     </row>
   </sheetData>

--- a/processed-data/Table_4_yearly_pop_counts.xlsx
+++ b/processed-data/Table_4_yearly_pop_counts.xlsx
@@ -1,69 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimco\Documents\MEGA\MEGAsync\Data_Scientist\Public-Sector\Vaccinations\Vax-Ireland\processed-data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF9C32-7EF5-463F-B088-B11549C7BE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="672" windowWidth="22188" windowHeight="12288" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Pop by Year, Age" sheetId="1" r:id="rId1"/>
-    <sheet name="Mort by Year, Age" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>5-14</t>
-  </si>
-  <si>
-    <t>15-24</t>
-  </si>
-  <si>
-    <t>25-34</t>
-  </si>
-  <si>
-    <t>35-44</t>
-  </si>
-  <si>
-    <t>45-54</t>
-  </si>
-  <si>
-    <t>55-64</t>
-  </si>
-  <si>
-    <t>65-74</t>
-  </si>
-  <si>
-    <t>75+</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,49 +350,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>5-14</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>75+</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -485,7 +449,7 @@
         <v>4554800</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -520,7 +484,7 @@
         <v>4588252</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -555,7 +519,7 @@
         <v>4593700</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -590,7 +554,7 @@
         <v>4614700</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -625,7 +589,7 @@
         <v>4645400</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -660,7 +624,7 @@
         <v>4687800</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -695,7 +659,7 @@
         <v>4761865</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -730,7 +694,7 @@
         <v>4792500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -765,7 +729,7 @@
         <v>4857000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -800,7 +764,7 @@
         <v>4921500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -835,7 +799,7 @@
         <v>4977400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -870,7 +834,7 @@
         <v>5011500</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -905,7 +869,7 @@
         <v>5149139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -938,546 +902,6 @@
       </c>
       <c r="K15">
         <v>5281600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF18619-B87C-406D-BAC9-AA8B27A0ACE6}">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>327</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2">
-        <v>261</v>
-      </c>
-      <c r="E2">
-        <v>449</v>
-      </c>
-      <c r="F2">
-        <v>703</v>
-      </c>
-      <c r="G2">
-        <v>1425</v>
-      </c>
-      <c r="H2">
-        <v>2809</v>
-      </c>
-      <c r="I2">
-        <v>4803</v>
-      </c>
-      <c r="J2">
-        <v>16733</v>
-      </c>
-      <c r="K2">
-        <v>27565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>292</v>
-      </c>
-      <c r="C3">
-        <v>48</v>
-      </c>
-      <c r="D3">
-        <v>296</v>
-      </c>
-      <c r="E3">
-        <v>447</v>
-      </c>
-      <c r="F3">
-        <v>790</v>
-      </c>
-      <c r="G3">
-        <v>1465</v>
-      </c>
-      <c r="H3">
-        <v>3026</v>
-      </c>
-      <c r="I3">
-        <v>5038</v>
-      </c>
-      <c r="J3">
-        <v>17593</v>
-      </c>
-      <c r="K3">
-        <v>28995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>295</v>
-      </c>
-      <c r="C4">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <v>251</v>
-      </c>
-      <c r="E4">
-        <v>449</v>
-      </c>
-      <c r="F4">
-        <v>764</v>
-      </c>
-      <c r="G4">
-        <v>1434</v>
-      </c>
-      <c r="H4">
-        <v>2827</v>
-      </c>
-      <c r="I4">
-        <v>4871</v>
-      </c>
-      <c r="J4">
-        <v>17897</v>
-      </c>
-      <c r="K4">
-        <v>28848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>275</v>
-      </c>
-      <c r="C5">
-        <v>58</v>
-      </c>
-      <c r="D5">
-        <v>215</v>
-      </c>
-      <c r="E5">
-        <v>411</v>
-      </c>
-      <c r="F5">
-        <v>634</v>
-      </c>
-      <c r="G5">
-        <v>1498</v>
-      </c>
-      <c r="H5">
-        <v>2947</v>
-      </c>
-      <c r="I5">
-        <v>5186</v>
-      </c>
-      <c r="J5">
-        <v>18794</v>
-      </c>
-      <c r="K5">
-        <v>30018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>287</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>202</v>
-      </c>
-      <c r="E6">
-        <v>419</v>
-      </c>
-      <c r="F6">
-        <v>663</v>
-      </c>
-      <c r="G6">
-        <v>1383</v>
-      </c>
-      <c r="H6">
-        <v>2816</v>
-      </c>
-      <c r="I6">
-        <v>5217</v>
-      </c>
-      <c r="J6">
-        <v>18052</v>
-      </c>
-      <c r="K6">
-        <v>29095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>243</v>
-      </c>
-      <c r="C7">
-        <v>52</v>
-      </c>
-      <c r="D7">
-        <v>198</v>
-      </c>
-      <c r="E7">
-        <v>387</v>
-      </c>
-      <c r="F7">
-        <v>637</v>
-      </c>
-      <c r="G7">
-        <v>1341</v>
-      </c>
-      <c r="H7">
-        <v>2764</v>
-      </c>
-      <c r="I7">
-        <v>5195</v>
-      </c>
-      <c r="J7">
-        <v>19135</v>
-      </c>
-      <c r="K7">
-        <v>29952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>189</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>167</v>
-      </c>
-      <c r="E8">
-        <v>336</v>
-      </c>
-      <c r="F8">
-        <v>616</v>
-      </c>
-      <c r="G8">
-        <v>1365</v>
-      </c>
-      <c r="H8">
-        <v>2839</v>
-      </c>
-      <c r="I8">
-        <v>5506</v>
-      </c>
-      <c r="J8">
-        <v>19137</v>
-      </c>
-      <c r="K8">
-        <v>30189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>202</v>
-      </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>175</v>
-      </c>
-      <c r="E9">
-        <v>306</v>
-      </c>
-      <c r="F9">
-        <v>679</v>
-      </c>
-      <c r="G9">
-        <v>1312</v>
-      </c>
-      <c r="H9">
-        <v>2739</v>
-      </c>
-      <c r="I9">
-        <v>5364</v>
-      </c>
-      <c r="J9">
-        <v>19662</v>
-      </c>
-      <c r="K9">
-        <v>30484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>214</v>
-      </c>
-      <c r="C10">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>157</v>
-      </c>
-      <c r="E10">
-        <v>331</v>
-      </c>
-      <c r="F10">
-        <v>619</v>
-      </c>
-      <c r="G10">
-        <v>1346</v>
-      </c>
-      <c r="H10">
-        <v>2762</v>
-      </c>
-      <c r="I10">
-        <v>5589</v>
-      </c>
-      <c r="J10">
-        <v>20044</v>
-      </c>
-      <c r="K10">
-        <v>31116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>219</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-      <c r="D11">
-        <v>153</v>
-      </c>
-      <c r="E11">
-        <v>305</v>
-      </c>
-      <c r="F11">
-        <v>673</v>
-      </c>
-      <c r="G11">
-        <v>1374</v>
-      </c>
-      <c r="H11">
-        <v>2927</v>
-      </c>
-      <c r="I11">
-        <v>5615</v>
-      </c>
-      <c r="J11">
-        <v>19823</v>
-      </c>
-      <c r="K11">
-        <v>31134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>180</v>
-      </c>
-      <c r="C12">
-        <v>47</v>
-      </c>
-      <c r="D12">
-        <v>136</v>
-      </c>
-      <c r="E12">
-        <v>256</v>
-      </c>
-      <c r="F12">
-        <v>642</v>
-      </c>
-      <c r="G12">
-        <v>1299</v>
-      </c>
-      <c r="H12">
-        <v>2765</v>
-      </c>
-      <c r="I12">
-        <v>5822</v>
-      </c>
-      <c r="J12">
-        <v>20618</v>
-      </c>
-      <c r="K12">
-        <v>31765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>194</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>146</v>
-      </c>
-      <c r="E13">
-        <v>262</v>
-      </c>
-      <c r="F13">
-        <v>674</v>
-      </c>
-      <c r="G13">
-        <v>1447</v>
-      </c>
-      <c r="H13">
-        <v>2975</v>
-      </c>
-      <c r="I13">
-        <v>5847</v>
-      </c>
-      <c r="J13">
-        <v>21475</v>
-      </c>
-      <c r="K13">
-        <v>33055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>210</v>
-      </c>
-      <c r="C14">
-        <v>42</v>
-      </c>
-      <c r="D14">
-        <v>175</v>
-      </c>
-      <c r="E14">
-        <v>340</v>
-      </c>
-      <c r="F14">
-        <v>659</v>
-      </c>
-      <c r="G14">
-        <v>1490</v>
-      </c>
-      <c r="H14">
-        <v>3122</v>
-      </c>
-      <c r="I14">
-        <v>6117</v>
-      </c>
-      <c r="J14">
-        <v>23322</v>
-      </c>
-      <c r="K14">
-        <v>35477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>97</v>
-      </c>
-      <c r="C15">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>78</v>
-      </c>
-      <c r="E15">
-        <v>123</v>
-      </c>
-      <c r="F15">
-        <v>299</v>
-      </c>
-      <c r="G15">
-        <v>742</v>
-      </c>
-      <c r="H15">
-        <v>1532</v>
-      </c>
-      <c r="I15">
-        <v>3151</v>
-      </c>
-      <c r="J15">
-        <v>12903</v>
-      </c>
-      <c r="K15">
-        <v>18954</v>
       </c>
     </row>
   </sheetData>
